--- a/biology/Écologie/Zone_biogéographique/Zone_biogéographique.xlsx
+++ b/biology/Écologie/Zone_biogéographique/Zone_biogéographique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Zone_biog%C3%A9ographique</t>
+          <t>Zone_biogéographique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une zone biogéographique désigne en biogéographie une zone géographique climatiquement et écologiquement relativement homogène du point de vue des formations végétales et des températures.
 C'est une unité écologique des systèmes de classification écologique des terres.
 Dans une approche écologique, la biogéographie divise la planète en grands biomes ou bien en écozones, puis en provinces biogéographiques ou écoprovinces, puis en écosystèmes, et en habitats.
 L'Europe est par exemple généralement subdivisée en 5 grandes zones biogéographiques (septentrionale, méridionale, occidentale, orientale, centrale) ou de manière un peu plus détaillée en écoprovinces.
 Ces zones évoluent dans le temps au rythme des phases glaciaires et interglaciaires.
-L'étude des fossiles et l'archéopaléontologie ou pour les périodes plus récentes l'archéologie du paysage[1] permettent notamment d'étudier ou évaluer l'impact des changements climatiques sur la faune, la flore, les paysages et leurs interrelations.
+L'étude des fossiles et l'archéopaléontologie ou pour les périodes plus récentes l'archéologie du paysage permettent notamment d'étudier ou évaluer l'impact des changements climatiques sur la faune, la flore, les paysages et leurs interrelations.
 </t>
         </is>
       </c>
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zone_biog%C3%A9ographique</t>
+          <t>Zone_biogéographique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,7 +528,9 @@
           <t>Une terminologie complexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Selon le contexte considéré en biogéographie et les disciplines alors concernées (géographie, géologie, paléontologie, océanographie, écologie, botanique, zoologie, biologie de la conservation), différents éléments peuvent être assimilés à des zones biogéographiques.
 dans un système géographique : les continents et les océans
